--- a/qichacha_csdn/company_msg.xlsx
+++ b/qichacha_csdn/company_msg.xlsx
@@ -1,37 +1,306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\useful_scripts\qichacha_csdn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF88A85-CA15-4F8E-9134-DA8E39A058DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2295" yWindow="1545" windowWidth="25590" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>入驻企业</t>
+  </si>
+  <si>
+    <t>统一社会信用代码</t>
+  </si>
+  <si>
+    <t>注册资本</t>
+  </si>
+  <si>
+    <t>法定代表人/负责人</t>
+  </si>
+  <si>
+    <t>所属行业</t>
+  </si>
+  <si>
+    <t>经营范围</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>企业规模</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/208347b0399b013e7d52e33f9f812382.html</t>
+  </si>
+  <si>
+    <t>常州智诚生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/55b7ef736d709e4654979d0941112713.html</t>
+  </si>
+  <si>
+    <t>江苏空天轻合金科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/5fbd27f810005c722eb15c32b53d8995.html</t>
+  </si>
+  <si>
+    <t>江苏力速达液压有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/71458a9cdf06806a4761782d01673b7d.html</t>
+  </si>
+  <si>
+    <t>江苏特优微光波科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/f2d00a5a651146196984b0ca1580bcf4.html</t>
+  </si>
+  <si>
+    <t>常州民福康软件技术有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/bf0cdb3c88a698aec4a39aac0c6b3c92.html</t>
+  </si>
+  <si>
+    <t>常州华祥碳材料科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/3ba982d625cec9456a84f07c8841d66c.html</t>
+  </si>
+  <si>
+    <t>常州桐树生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/14612c795182843ad96d159de6acd9b7.html</t>
+  </si>
+  <si>
+    <t>常州高清信息技术有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/0c1ff27d4a858b63808709531e5aa397.html</t>
+  </si>
+  <si>
+    <t>芯晟捷创</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/5693449eb4bf835336b1cf38af3ce6a3.html</t>
+  </si>
+  <si>
+    <t>烯奇新材料</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/daac15dff59ed96fbf4e51c4b19ea55b.html</t>
+  </si>
+  <si>
+    <t>常州谱利健医学科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/5634a0910466687ff0c19a1c5ae92a45.html</t>
+  </si>
+  <si>
+    <t>江苏精策医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/ef3f0df147ade57dcb01757b2c064bee.html</t>
+  </si>
+  <si>
+    <t>江苏安诺锐科医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/133b051e781921f17f66f6a12cf180b0.html</t>
+  </si>
+  <si>
+    <t>江苏磐聚仪器有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/e735b72c27d12cfa68813a24980e9b04.html</t>
+  </si>
+  <si>
+    <t>常州市旷跃机械有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/11bc353fd04f283fe80d2752703c5d33.html</t>
+  </si>
+  <si>
+    <t>大凹</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/42d9fb18ee4bdae6f6f0713e6eefcb0e.html</t>
+  </si>
+  <si>
+    <t>帕斯德智能控制系统（常州）有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/267be76492548faba4428c092016963b.html</t>
+  </si>
+  <si>
+    <t>常州平衡热能科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/f796ba7d1b7208799b65ec6f2dbe703c.html</t>
+  </si>
+  <si>
+    <t>常州智盟智能装备科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/ea98913beae313682cfc9d14370b2027.html</t>
+  </si>
+  <si>
+    <t>摩迈新科（常州）汽车科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/915f238b3597a56ebec03eb5f7621fd2.html</t>
+  </si>
+  <si>
+    <t>万家润（常州）环保新材料有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/7dd5a06d1fb3554225934f3b20397ec5.html</t>
+  </si>
+  <si>
+    <t>常州花香缘艺有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/87211decaf9311b9f8eaef8fc4c971e9.html</t>
+  </si>
+  <si>
+    <t>安永医疗科技常州有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/1e276f4bbb178064ea7d1dd67c995b9b.html</t>
+  </si>
+  <si>
+    <t>常州华工纳威生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/3c0e6f4cfd3c2f1d7c8c0bc0e4da28d8.html</t>
+  </si>
+  <si>
+    <t>长光智能</t>
+  </si>
+  <si>
+    <t>常州罗博斯特机器人有限公司</t>
+  </si>
+  <si>
+    <t>放弃龙十一</t>
+  </si>
+  <si>
+    <t>常州汉劼生物科技有限公司</t>
+  </si>
+  <si>
+    <t>锦澄医疗</t>
+  </si>
+  <si>
+    <t>常州盛烯达新材料科技有限公司</t>
+  </si>
+  <si>
+    <t>常州艾欧塔物联网科技有限公司</t>
+  </si>
+  <si>
+    <t>常州爱康臻医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>常州合欣达旭新能源科技发展有限公司</t>
+  </si>
+  <si>
+    <t>江苏新成碳合新材料科技有限公司</t>
+  </si>
+  <si>
+    <t>合烯新材料（常州）有限公司</t>
+  </si>
+  <si>
+    <t>常州光芯集成光学有限公司</t>
+  </si>
+  <si>
+    <t>优尔爱（常州）医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>常州百和菱智能装备有限责任公司</t>
+  </si>
+  <si>
+    <t>常州畅锐元材料科技有限公司</t>
+  </si>
+  <si>
+    <t>常州鸿蒙生物科技有限公司（总经理）</t>
+  </si>
+  <si>
+    <t>美拓电线（常州）有限公司</t>
+  </si>
+  <si>
+    <t>常州无疆新材料科技有限公司</t>
+  </si>
+  <si>
+    <t>常州谦泰医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>东禾软件（江苏）有限责任公司</t>
+  </si>
+  <si>
+    <t>博尔医疗科技常州有限公司</t>
+  </si>
+  <si>
+    <t>常州鼎韦环保科技有限公司</t>
+  </si>
+  <si>
+    <t>常州市艾斯康生物医药有限公司</t>
+  </si>
+  <si>
+    <t>江苏桔至家居科技有限公司</t>
+  </si>
+  <si>
+    <t>江苏拓邦机器人有限公司</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +315,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,98 +639,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>入驻企业</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>统一社会信用代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>人才姓名</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>人才职务</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>注册资本</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>法定代表人</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>所属行业</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>经营范围</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>注册地址</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>企业规模</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>碳元科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>徐世中</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>